--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autoTest\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnpython\autoTest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0083899-14C5-485C-B443-D0F76850C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4392A7-BC30-4F6D-8F4B-988BD731EB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1815" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="recharge" sheetId="2" r:id="rId2"/>
+    <sheet name="cal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +127,50 @@
 "headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer#token#"},
 "json":{"member_id":#member_id#,"amount":666.66}
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,17 +502,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="51.640625" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -504,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -521,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -549,18 +594,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07F9BE-ABF4-4B59-B2DC-675C472A240B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="18.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.2109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -594,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -611,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -633,4 +678,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C6B910-B979-429A-9941-DD210F122B66}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.2109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnpython\autoTest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4392A7-BC30-4F6D-8F4B-988BD731EB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC49092-CA0D-4C10-9F99-1F79988F7F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="377" yWindow="0" windowWidth="23460" windowHeight="14709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,20 +503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.640625" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,13 +531,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -545,11 +553,14 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -562,11 +573,14 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -579,7 +593,10 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -592,20 +609,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07F9BE-ABF4-4B59-B2DC-675C472A240B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.35546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.2109375" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,10 +637,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="70.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -635,11 +656,14 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>200</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -652,11 +676,14 @@
       <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>200</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -669,7 +696,10 @@
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -684,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C6B910-B979-429A-9941-DD210F122B66}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>

--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnpython\autoTest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC49092-CA0D-4C10-9F99-1F79988F7F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B573F76-78E4-4817-9FD7-5A877F9A4984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="377" yWindow="0" windowWidth="23460" windowHeight="14709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,80 +101,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>充值成功-一位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值成功-两位小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
-"headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer#token#"},
+"headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer #token#"},
+"json":{"member_id":#member_id#,"amount":666.6}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer #token#"},
 "json":{"member_id":#member_id#,"amount":666}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>充值成功-一位小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-"headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer#token#"},
-"json":{"member_id":#member_id#,"amount":666.6}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值成功-两位小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer#token#"},
+"headers": {"X-Lemonban-Media-Type": "lemonban.v2","Authorization":"Bearer #token#"},
 "json":{"member_id":#member_id#,"amount":666.66}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乘法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status_code</t>
+    <t>{
+"code": 0, "msg": "OK"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -531,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -611,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07F9BE-ABF4-4B59-B2DC-675C472A240B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -637,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -654,18 +660,18 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -674,18 +680,18 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -694,13 +700,13 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -729,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -743,13 +749,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -760,13 +766,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -777,13 +783,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -794,13 +800,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>6</v>

--- a/testdata/testcases.xlsx
+++ b/testdata/testcases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnpython\autoTest\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B573F76-78E4-4817-9FD7-5A877F9A4984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97EC7D-A6CE-45EF-ACFF-378A285E1A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="377" yWindow="0" windowWidth="23460" windowHeight="14709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="recharge" sheetId="2" r:id="rId2"/>
-    <sheet name="cal" sheetId="3" r:id="rId3"/>
+    <sheet name="loan_info" sheetId="4" r:id="rId3"/>
+    <sheet name="cal" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,20 +77,6 @@
   </si>
   <si>
     <t>注册成功-带昵称-类型为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v2"},
-    "json": {"mobile_phone": "18888888888", "pwd": "12345678","type":"0","reg_name":"lemon"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v2"},
-    "json": {"mobile_phone": "18888888888", "pwd": "12345678"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v2"},"json": {"mobile_phone": "18888888888", "pwd": "12345678","type":"1"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -180,6 +167,68 @@
   <si>
     <t>{
 "code": 0, "msg": "OK"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v1"},
+    "json": {"mobile_phone": "18888888888", "pwd": "12345678"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v1"},
+    "json": {"mobile_phone": "18888888888", "pwd": "12345678","type":"0","reg_name":"lemon"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v1"},"json": {"mobile_phone": "18888888888", "pwd": "12345678","type":"1"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"code": 2, "msg": "账号已存在"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"name":"member_id","exp":"$..id"},{"name":"token","exp":"$..token_info.token"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v1"},"json": {"mobile_phone": "18888888888", "pwd": "12345678"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"headers": {"X-Lemonban-Media-Type": "lemonban.v2"},"json": {"mobile_phone": "18888888888", "pwd": "12345678"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"headers": {"X-Lemonban-Media-Type":"lemonban.v2","Authorization":"Bearer #token#"},"json":{"member_id":#member_id#,"amount":666}
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,7 +561,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -537,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -557,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
@@ -577,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
@@ -597,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
@@ -617,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC07F9BE-ABF4-4B59-B2DC-675C472A240B}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -643,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -651,62 +700,62 @@
     </row>
     <row r="2" spans="1:6" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1">
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>200</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -717,6 +766,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAD0B62-2D81-43DC-A2C5-7A49E0EBD98D}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="67.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C6B910-B979-429A-9941-DD210F122B66}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -735,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -749,13 +918,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -766,13 +935,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -783,13 +952,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -800,13 +969,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>6</v>
